--- a/data/Auxiliar_data/Centros_v2019.xlsx
+++ b/data/Auxiliar_data/Centros_v2019.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER-PC\Desktop\GAD_CEEISCAT\COBATEST_2018\data\Auxiliar_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER-PC\Desktop\GAD_CEEISCAT\COBATEST_2019\data\Auxiliar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC73153-8DFC-4C10-9014-1D7EE4E0DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC6CD93-BF6C-45FA-A060-46B1383C5FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COBA_2021" sheetId="5" r:id="rId1"/>
     <sheet name="COBA_2020" sheetId="4" r:id="rId2"/>
     <sheet name="COBA_2019" sheetId="3" r:id="rId3"/>
-    <sheet name="COBA_2018" sheetId="7" r:id="rId4"/>
-    <sheet name="COBA_2017" sheetId="6" r:id="rId5"/>
-    <sheet name="Original_pre2019" sheetId="1" r:id="rId6"/>
+    <sheet name="COBA_2019_old" sheetId="8" r:id="rId4"/>
+    <sheet name="COBA_2018" sheetId="7" r:id="rId5"/>
+    <sheet name="COBA_2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Original_pre2019" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COBA_2020!$A$1:$E$76</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="178">
   <si>
     <t>Centre</t>
   </si>
@@ -786,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,7 +818,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,6 +863,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07493C88-9D75-4F9E-9317-2EA76C630C61}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:C55"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1216,1304 +1224,1304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="20">
+      <c r="A33" s="19">
         <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="20">
+      <c r="A35" s="19">
         <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="20">
+      <c r="A36" s="19">
         <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="20">
+      <c r="A37" s="19">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="20">
+      <c r="A38" s="19">
         <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="20">
+      <c r="A39" s="19">
         <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>45</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>46</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="20">
+      <c r="A43" s="19">
         <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="25">
+      <c r="A44" s="24">
         <v>48</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <v>49</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <v>50</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>51</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="20">
+      <c r="A48" s="19">
         <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="20">
+      <c r="A49" s="19">
         <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="20">
+      <c r="A50" s="19">
         <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="20">
+      <c r="A51" s="19">
         <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="20">
+      <c r="A52" s="19">
         <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="20">
+      <c r="A53" s="19">
         <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="20">
+      <c r="A54" s="19">
         <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="20">
+      <c r="A55" s="19">
         <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="20">
+      <c r="A56" s="19">
         <v>62</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="20">
+      <c r="A57" s="19">
         <v>63</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="20">
+      <c r="A58" s="19">
         <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="20">
+      <c r="A59" s="19">
         <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="20">
+      <c r="A60" s="19">
         <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="20">
+      <c r="A61" s="19">
         <v>67</v>
       </c>
       <c r="B61" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="20">
+      <c r="A62" s="19">
         <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="20">
+      <c r="A63" s="19">
         <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="20">
+      <c r="A64" s="19">
         <v>70</v>
       </c>
       <c r="B64" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="20">
+      <c r="A65" s="19">
         <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" s="20">
+      <c r="A66" s="19">
         <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="20">
+      <c r="A67" s="19">
         <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="20">
+      <c r="A68" s="19">
         <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="20">
+      <c r="A69" s="19">
         <v>75</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" s="20">
+      <c r="A70" s="19">
         <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="20">
+      <c r="A71" s="19">
         <v>77</v>
       </c>
       <c r="B71" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="20">
+      <c r="A72" s="19">
         <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" s="20">
+      <c r="A73" s="19">
         <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" s="20">
+      <c r="A74" s="19">
         <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" s="20">
+      <c r="A75" s="19">
         <v>81</v>
       </c>
       <c r="B75" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" s="20">
+      <c r="A76" s="19">
         <v>82</v>
       </c>
       <c r="B76" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="20">
+      <c r="A77" s="19">
         <v>83</v>
       </c>
       <c r="B77" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="20">
+      <c r="A78" s="19">
         <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" s="20">
+      <c r="A79" s="19">
         <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="20">
+      <c r="A80" s="19">
         <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" s="20">
+      <c r="A81" s="19">
         <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" s="20">
+      <c r="A82" s="19">
         <v>88</v>
       </c>
       <c r="B82" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" s="20">
+      <c r="A83" s="19">
         <v>89</v>
       </c>
       <c r="B83" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" s="20">
+      <c r="A84" s="19">
         <v>90</v>
       </c>
       <c r="B84" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" s="20">
+      <c r="A85" s="19">
         <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>129</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="20">
+      <c r="A86" s="19">
         <v>92</v>
       </c>
       <c r="B86" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" s="20">
+      <c r="A87" s="19">
         <v>93</v>
       </c>
       <c r="B87" t="s">
         <v>131</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" s="20">
+      <c r="A88" s="19">
         <v>94</v>
       </c>
       <c r="B88" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" s="20">
+      <c r="A89" s="19">
         <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" s="20">
+      <c r="A90" s="19">
         <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" s="20">
+      <c r="A91" s="19">
         <v>97</v>
       </c>
       <c r="B91" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="20">
+      <c r="A92" s="19">
         <v>98</v>
       </c>
       <c r="B92" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" s="21">
+      <c r="A93" s="20">
         <v>99</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D93" s="36" t="s">
+      <c r="D93" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2546,1146 +2554,1146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="23"/>
+      <c r="D2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="23"/>
+      <c r="D3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="23"/>
+      <c r="D4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="23"/>
+      <c r="D5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="23"/>
+      <c r="D6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="23"/>
+      <c r="D7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="23"/>
+      <c r="D8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="23"/>
+      <c r="D10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="23"/>
+      <c r="D11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="23"/>
+      <c r="D12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="23"/>
+      <c r="D13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="D14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="23"/>
+      <c r="D15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="23"/>
+      <c r="D16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="23"/>
+      <c r="D17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>19</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="23"/>
+      <c r="D18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>20</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="D19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>21</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="23"/>
+      <c r="D20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>22</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="23"/>
+      <c r="D21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>23</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="23"/>
+      <c r="D22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>24</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="23"/>
+      <c r="D23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>25</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="23"/>
+      <c r="D24" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>26</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="23"/>
+      <c r="D25" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>27</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="23"/>
+      <c r="D26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>28</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>29</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>30</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>32</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>33</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="23"/>
+      <c r="D31" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>34</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="20">
+      <c r="A33" s="19">
         <v>35</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="23"/>
+      <c r="D33" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>36</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="23"/>
+      <c r="D34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="20">
+      <c r="A35" s="19">
         <v>37</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="23"/>
+      <c r="D35" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="20">
+      <c r="A36" s="19">
         <v>39</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="23"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="20">
+      <c r="A37" s="19">
         <v>40</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="23"/>
+      <c r="D37" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="20">
+      <c r="A38" s="19">
         <v>42</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="23"/>
+      <c r="D38" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="20">
+      <c r="A39" s="19">
         <v>43</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="23"/>
+      <c r="D39" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>44</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="23"/>
+      <c r="D40" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>45</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="23"/>
+      <c r="D41" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>46</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="23"/>
+      <c r="D42" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="20">
+      <c r="A43" s="19">
         <v>47</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="23"/>
+      <c r="D43" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="25">
+      <c r="A44" s="24">
         <v>48</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="23"/>
+      <c r="D44" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <v>49</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="23"/>
+      <c r="D45" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <v>50</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="23"/>
+      <c r="D46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>51</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="23"/>
+      <c r="D47" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="20">
+      <c r="A48" s="19">
         <v>55</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="23"/>
+      <c r="D48" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="20">
+      <c r="A49" s="19">
         <v>56</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="23"/>
+      <c r="D49" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="20">
+      <c r="A50" s="19">
         <v>57</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="20">
+      <c r="A51" s="19">
         <v>58</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="23"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="20">
+      <c r="A52" s="19">
         <v>59</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="20">
+      <c r="A53" s="19">
         <v>60</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="23"/>
+      <c r="D53" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="20">
+      <c r="A54" s="19">
         <v>61</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="20">
+      <c r="A55" s="19">
         <v>62</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="23"/>
+      <c r="D55" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="20">
+      <c r="A56" s="19">
         <v>63</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="23"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="20">
+      <c r="A57" s="19">
         <v>64</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="23"/>
+      <c r="D57" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="20">
+      <c r="A58" s="19">
         <v>65</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="23"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="20">
+      <c r="A59" s="19">
         <v>66</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="23"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="20">
+      <c r="A60" s="19">
         <v>67</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="23"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="20">
+      <c r="A61" s="19">
         <v>68</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="23"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="20">
+      <c r="A62" s="19">
         <v>69</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="23"/>
+      <c r="D62" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="20">
+      <c r="A63" s="19">
         <v>70</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="20">
+      <c r="A64" s="19">
         <v>71</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" s="23"/>
+      <c r="D64" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="20">
+      <c r="A65" s="19">
         <v>72</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="23"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="20">
+      <c r="A66" s="19">
         <v>73</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="20">
+      <c r="A67" s="19">
         <v>74</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="23"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="20">
+      <c r="A68" s="19">
         <v>75</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="23"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="20">
+      <c r="A69" s="19">
         <v>76</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E69" s="23"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="20">
+      <c r="A70" s="19">
         <v>77</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="20">
+      <c r="A71" s="19">
         <v>78</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="23"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="20">
-        <v>79</v>
-      </c>
-      <c r="B72" s="27" t="s">
+      <c r="A72" s="19">
+        <v>79</v>
+      </c>
+      <c r="B72" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="23"/>
+      <c r="D72" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="20">
-        <v>80</v>
-      </c>
-      <c r="B73" s="27" t="s">
+      <c r="A73" s="19">
+        <v>80</v>
+      </c>
+      <c r="B73" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E73" s="23"/>
+      <c r="D73" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="20">
+      <c r="A74" s="19">
         <v>81</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E74" s="23"/>
+      <c r="D74" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="20">
+      <c r="A75" s="19">
         <v>82</v>
       </c>
       <c r="B75" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" s="23"/>
+      <c r="D75" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="21">
+      <c r="A76" s="20">
         <v>83</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E76" s="24"/>
+      <c r="E76" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E76" xr:uid="{591AFB90-C77C-4845-A406-6727E06B0EAD}"/>
@@ -3696,10 +3704,1067 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E045EF6F-48EC-48F3-B93A-48ED590BD1D3}">
+  <dimension ref="A1:D74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.53125" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="19">
+        <v>34</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="19">
+        <v>35</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="19">
+        <v>36</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="19">
+        <v>37</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="19">
+        <v>38</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="19">
+        <v>39</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="19">
+        <v>41</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="19">
+        <v>42</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="19">
+        <v>43</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="19">
+        <v>44</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="19">
+        <v>45</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="19">
+        <v>46</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="19">
+        <v>47</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="19">
+        <v>48</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="19">
+        <v>49</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="19">
+        <v>50</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="19">
+        <v>51</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="19">
+        <v>52</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="19">
+        <v>53</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="19">
+        <v>54</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="19">
+        <v>55</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="19">
+        <v>56</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="19">
+        <v>57</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="19">
+        <v>58</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="19">
+        <v>59</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="19">
+        <v>60</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="19">
+        <v>61</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="19">
+        <v>62</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="19">
+        <v>63</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="19">
+        <v>64</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="19">
+        <v>65</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="19">
+        <v>66</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="19">
+        <v>67</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="19">
+        <v>68</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="19">
+        <v>69</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="19">
+        <v>70</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="19">
+        <v>71</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="19">
+        <v>76</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="20">
+        <v>100</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF64486-6992-4422-8611-EB76AEDACE2F}">
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3900,7 +4965,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
@@ -4506,12 +5571,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50647121-D7CA-4FE4-B20A-27589E73BD05}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4523,968 +5588,968 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="38">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="38">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="38">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="38">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="38">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="38">
+      <c r="A27" s="37">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="38">
+      <c r="A28" s="37">
         <v>27</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="38">
+      <c r="A29" s="37">
         <v>28</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="38">
+      <c r="A30" s="37">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>126</v>
       </c>
       <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="38">
+      <c r="A31" s="37">
         <v>30</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="38">
+      <c r="A32" s="37">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="38">
+      <c r="A33" s="37">
         <v>32</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="38">
+      <c r="A34" s="37">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="38">
+      <c r="A35" s="37">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="38">
+      <c r="A36" s="37">
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="38">
+      <c r="A37" s="37">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="38">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="38">
+      <c r="A39" s="37">
         <v>38</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="38">
+      <c r="A40" s="37">
         <v>39</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="38">
+      <c r="A41" s="37">
         <v>40</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="38">
+      <c r="A42" s="37">
         <v>41</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="38">
+      <c r="A43" s="37">
         <v>42</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="38">
+      <c r="A44" s="37">
         <v>43</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="38">
+      <c r="A45" s="37">
         <v>44</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>45</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="42">
+      <c r="A47" s="41">
         <v>46</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="38">
+      <c r="A48" s="37">
         <v>47</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="42">
+      <c r="A49" s="41">
         <v>48</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>49</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="42">
+      <c r="A51" s="41">
         <v>50</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>51</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="38">
+      <c r="A53" s="37">
         <v>52</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C53" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="38">
+      <c r="A54" s="37">
         <v>55</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C54" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="38">
+      <c r="A55" s="37">
         <v>56</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>175</v>
       </c>
       <c r="C55" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="38">
+      <c r="A56" s="37">
         <v>57</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>176</v>
       </c>
       <c r="C56" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="38">
+      <c r="A57" s="37">
         <v>58</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="38">
+      <c r="A58" s="37">
         <v>59</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C58" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="38">
+      <c r="A59" s="37">
         <v>60</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C59" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="38">
+      <c r="A60" s="37">
         <v>61</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C60" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="38">
+      <c r="A61" s="37">
         <v>62</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C61" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="38">
+      <c r="A62" s="37">
         <v>63</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="38">
+      <c r="A63" s="37">
         <v>65</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>146</v>
       </c>
       <c r="C63" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="38">
+      <c r="A64" s="37">
         <v>66</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="38">
+      <c r="A65" s="37">
         <v>68</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" s="38">
+      <c r="A66" s="37">
         <v>69</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="38">
+      <c r="A67" s="37">
         <v>71</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C67" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="38">
+      <c r="A68" s="37">
         <v>76</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C68" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="39">
+      <c r="A69" s="38">
         <v>100</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5493,7 +6558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC62B3D-216B-43B9-B068-560604C48D12}">
   <dimension ref="A1:D67"/>
   <sheetViews>
@@ -5510,940 +6575,940 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="38">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="38">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="38">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="38">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="38">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="38">
+      <c r="A27" s="37">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="38">
+      <c r="A28" s="37">
         <v>27</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="38">
+      <c r="A29" s="37">
         <v>28</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="38">
+      <c r="A30" s="37">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>126</v>
       </c>
       <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="38">
+      <c r="A31" s="37">
         <v>30</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="38">
+      <c r="A32" s="37">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="38">
+      <c r="A33" s="37">
         <v>32</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="38">
+      <c r="A34" s="37">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="38">
+      <c r="A35" s="37">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="38">
+      <c r="A36" s="37">
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="38">
+      <c r="A37" s="37">
         <v>36</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="38">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="38">
+      <c r="A39" s="37">
         <v>38</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="38">
+      <c r="A40" s="37">
         <v>39</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="38">
+      <c r="A41" s="37">
         <v>40</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="38">
+      <c r="A42" s="37">
         <v>41</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="38">
+      <c r="A43" s="37">
         <v>42</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="38">
+      <c r="A44" s="37">
         <v>43</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="38">
+      <c r="A45" s="37">
         <v>44</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>45</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="42">
+      <c r="A47" s="41">
         <v>46</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="38">
+      <c r="A48" s="37">
         <v>47</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="42">
+      <c r="A49" s="41">
         <v>48</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>49</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="42">
+      <c r="A51" s="41">
         <v>50</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>51</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="38">
+      <c r="A53" s="37">
         <v>52</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C53" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="38">
+      <c r="A54" s="37">
         <v>55</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C54" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="38">
+      <c r="A55" s="37">
         <v>56</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>175</v>
       </c>
       <c r="C55" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="38">
+      <c r="A56" s="37">
         <v>57</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>176</v>
       </c>
       <c r="C56" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="38">
+      <c r="A57" s="37">
         <v>58</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="38">
+      <c r="A58" s="37">
         <v>59</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C58" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="38">
+      <c r="A59" s="37">
         <v>60</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C59" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="38">
+      <c r="A60" s="37">
         <v>61</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>156</v>
       </c>
       <c r="C60" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="38">
+      <c r="A61" s="37">
         <v>62</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C61" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="38">
+      <c r="A62" s="37">
         <v>63</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="38">
+      <c r="A63" s="37">
         <v>65</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>146</v>
       </c>
       <c r="C63" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="38">
+      <c r="A64" s="37">
         <v>66</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="38">
+      <c r="A65" s="37">
         <v>71</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C65" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" s="38">
+      <c r="A66" s="37">
         <v>76</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="39">
+      <c r="A67" s="38">
         <v>100</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6452,7 +7517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>

--- a/data/Auxiliar_data/Centros_v2019.xlsx
+++ b/data/Auxiliar_data/Centros_v2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER-PC\Desktop\GAD_CEEISCAT\COBATEST_2019\data\Auxiliar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC6CD93-BF6C-45FA-A060-46B1383C5FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D162F-96B2-414D-B944-B24162199C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38415" yWindow="0" windowWidth="16455" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COBA_2021" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Original_pre2019" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COBA_2019!$A$1:$E$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">COBA_2020!$A$1:$E$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COBA_2021!$A$1:$D$94</definedName>
   </definedNames>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="180">
   <si>
     <t>Centre</t>
   </si>
@@ -564,6 +565,12 @@
   </si>
   <si>
     <t>CSH Sofia Bulgaria</t>
+  </si>
+  <si>
+    <t>Comentaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi ha dades CJAS a cobatest_tool. Hem d'agafar les dades desagregades. </t>
   </si>
 </sst>
 </file>
@@ -787,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,12 +872,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07493C88-9D75-4F9E-9317-2EA76C630C61}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3704,10 +3710,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E045EF6F-48EC-48F3-B93A-48ED590BD1D3}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3716,10 +3722,11 @@
     <col min="2" max="2" width="25.53125" customWidth="1"/>
     <col min="3" max="3" width="42.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -3731,12 +3738,15 @@
       <c r="D1" s="44" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -3746,11 +3756,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -3760,11 +3770,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -3774,11 +3784,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -3788,11 +3798,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3802,11 +3812,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -3816,11 +3826,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -3830,11 +3840,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -3843,12 +3853,15 @@
       <c r="D9" s="32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -3858,11 +3871,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -3872,11 +3885,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -3886,11 +3899,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -3900,11 +3913,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -3914,11 +3927,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -3928,11 +3941,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -3946,7 +3959,7 @@
       <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -3960,7 +3973,7 @@
       <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -3974,7 +3987,7 @@
       <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -3988,7 +4001,7 @@
       <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -4002,7 +4015,7 @@
       <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -4016,7 +4029,7 @@
       <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4030,7 +4043,7 @@
       <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -4044,7 +4057,7 @@
       <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -4058,7 +4071,7 @@
       <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -4072,7 +4085,7 @@
       <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -4086,7 +4099,7 @@
       <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -4100,7 +4113,7 @@
       <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -4114,7 +4127,7 @@
       <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="22" t="s">
@@ -4128,7 +4141,7 @@
       <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -4142,7 +4155,7 @@
       <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -4156,7 +4169,7 @@
       <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -4170,7 +4183,7 @@
       <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -4184,7 +4197,7 @@
       <c r="A34" s="19">
         <v>33</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -4198,7 +4211,7 @@
       <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -4212,7 +4225,7 @@
       <c r="A36" s="19">
         <v>35</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -4226,7 +4239,7 @@
       <c r="A37" s="19">
         <v>36</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -4240,7 +4253,7 @@
       <c r="A38" s="19">
         <v>37</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="22" t="s">
@@ -4254,7 +4267,7 @@
       <c r="A39" s="19">
         <v>38</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="22" t="s">
@@ -4268,7 +4281,7 @@
       <c r="A40" s="19">
         <v>39</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -4282,7 +4295,7 @@
       <c r="A41" s="19">
         <v>40</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="22" t="s">
@@ -4296,7 +4309,7 @@
       <c r="A42" s="19">
         <v>41</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -4310,7 +4323,7 @@
       <c r="A43" s="19">
         <v>42</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="22" t="s">
@@ -4324,7 +4337,7 @@
       <c r="A44" s="19">
         <v>43</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -4338,7 +4351,7 @@
       <c r="A45" s="19">
         <v>44</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -4352,7 +4365,7 @@
       <c r="A46" s="19">
         <v>45</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -4366,7 +4379,7 @@
       <c r="A47" s="19">
         <v>46</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -4380,7 +4393,7 @@
       <c r="A48" s="19">
         <v>47</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="22" t="s">
@@ -4394,7 +4407,7 @@
       <c r="A49" s="19">
         <v>48</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="25" t="s">
@@ -4408,7 +4421,7 @@
       <c r="A50" s="19">
         <v>49</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -4422,7 +4435,7 @@
       <c r="A51" s="19">
         <v>50</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -4436,7 +4449,7 @@
       <c r="A52" s="19">
         <v>51</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="25" t="s">
@@ -4450,7 +4463,7 @@
       <c r="A53" s="19">
         <v>52</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -4464,7 +4477,7 @@
       <c r="A54" s="19">
         <v>53</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="22" t="s">
@@ -4478,7 +4491,7 @@
       <c r="A55" s="19">
         <v>54</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="22" t="s">
@@ -4492,7 +4505,7 @@
       <c r="A56" s="19">
         <v>55</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="22" t="s">
@@ -4506,7 +4519,7 @@
       <c r="A57" s="19">
         <v>56</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="22" t="s">
@@ -4520,7 +4533,7 @@
       <c r="A58" s="19">
         <v>57</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="22" t="s">
@@ -4534,7 +4547,7 @@
       <c r="A59" s="19">
         <v>58</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -4548,7 +4561,7 @@
       <c r="A60" s="19">
         <v>59</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="22" t="s">
@@ -4562,7 +4575,7 @@
       <c r="A61" s="19">
         <v>60</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="22" t="s">
@@ -4576,7 +4589,7 @@
       <c r="A62" s="19">
         <v>61</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="22" t="s">
@@ -4590,11 +4603,11 @@
       <c r="A63" s="19">
         <v>62</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>81</v>
@@ -4604,7 +4617,7 @@
       <c r="A64" s="19">
         <v>63</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="C64" s="22" t="s">
@@ -4618,7 +4631,7 @@
       <c r="A65" s="19">
         <v>64</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="22" t="s">
@@ -4632,7 +4645,7 @@
       <c r="A66" s="19">
         <v>65</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="22" t="s">
@@ -4646,7 +4659,7 @@
       <c r="A67" s="19">
         <v>66</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="22" t="s">
@@ -4660,7 +4673,7 @@
       <c r="A68" s="19">
         <v>67</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="22" t="s">
@@ -4674,7 +4687,7 @@
       <c r="A69" s="19">
         <v>68</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="22" t="s">
@@ -4688,7 +4701,7 @@
       <c r="A70" s="19">
         <v>69</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" t="s">
         <v>77</v>
       </c>
       <c r="C70" s="22" t="s">
@@ -4702,7 +4715,7 @@
       <c r="A71" s="19">
         <v>70</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" t="s">
         <v>78</v>
       </c>
       <c r="C71" s="22" t="s">
@@ -4716,7 +4729,7 @@
       <c r="A72" s="19">
         <v>71</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B72" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="22" t="s">
@@ -4730,7 +4743,7 @@
       <c r="A73" s="19">
         <v>76</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="22" t="s">
@@ -4755,6 +4768,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E74" xr:uid="{E045EF6F-48EC-48F3-B93A-48ED590BD1D3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
